--- a/DataProcessed/samplesize200partition.xlsx
+++ b/DataProcessed/samplesize200partition.xlsx
@@ -32,16 +32,16 @@
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0898 (0.0032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8278 (0.0476)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8302 (0.0882)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8224 (0.1001)</t>
+    <t xml:space="preserve">0.0899 (0.0033)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8273 (0.0481)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8295 (0.0897)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8222 (0.1015)</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">0.0900 (0.0028)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8288 (0.0471)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8296 (0.0812)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8271 (0.1006)</t>
+    <t xml:space="preserve">0.8290 (0.0468)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8299 (0.0808)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8271 (0.1012)</t>
   </si>
   <si>
     <t xml:space="preserve">0.8</t>
@@ -65,13 +65,13 @@
     <t xml:space="preserve">0.0899 (0.0024)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8319 (0.0629)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8341 (0.0901)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8268 (0.1247)</t>
+    <t xml:space="preserve">0.8319 (0.0626)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8340 (0.0897)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8272 (0.1243)</t>
   </si>
 </sst>
 </file>

--- a/DataProcessed/samplesize200partition.xlsx
+++ b/DataProcessed/samplesize200partition.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">train_size</t>
   </si>
   <si>
-    <t xml:space="preserve">optimal_cutpoint</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accuracy</t>
   </si>
   <si>
@@ -32,24 +29,18 @@
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0899 (0.0033)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8273 (0.0481)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8295 (0.0897)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8222 (0.1015)</t>
+    <t xml:space="preserve">0.8272 (0.0483)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8294 (0.0900)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8222 (0.1016)</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0900 (0.0028)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.8290 (0.0468)</t>
   </si>
   <si>
@@ -62,13 +53,10 @@
     <t xml:space="preserve">0.8</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0899 (0.0024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8319 (0.0626)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8340 (0.0897)</t>
+    <t xml:space="preserve">0.8319 (0.0627)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8340 (0.0898)</t>
   </si>
   <si>
     <t xml:space="preserve">0.8272 (0.1243)</t>
@@ -416,59 +404,47 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
